--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ptprz1-Ncam1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ptprz1-Ncam1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Ptprz1</t>
   </si>
   <si>
     <t>Ncam1</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -537,46 +537,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.09677100000000001</v>
+        <v>0.138766</v>
       </c>
       <c r="H2">
-        <v>0.290313</v>
+        <v>0.416298</v>
       </c>
       <c r="I2">
-        <v>0.02354936372111632</v>
+        <v>0.01356925767068476</v>
       </c>
       <c r="J2">
-        <v>0.02354936372111632</v>
+        <v>0.01356925767068476</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.182981</v>
+        <v>1.208684666666667</v>
       </c>
       <c r="N2">
-        <v>3.548943</v>
+        <v>3.626054</v>
       </c>
       <c r="O2">
-        <v>0.02832403852590812</v>
+        <v>0.01462795763842055</v>
       </c>
       <c r="P2">
-        <v>0.02832403852590812</v>
+        <v>0.01462795763842055</v>
       </c>
       <c r="Q2">
-        <v>0.114478254351</v>
+        <v>0.1677243364546667</v>
       </c>
       <c r="R2">
-        <v>1.030304289159</v>
+        <v>1.509519028092</v>
       </c>
       <c r="S2">
-        <v>0.0006670130852975215</v>
+        <v>0.0001984905263915898</v>
       </c>
       <c r="T2">
-        <v>0.0006670130852975216</v>
+        <v>0.0001984905263915898</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -599,16 +599,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.09677100000000001</v>
+        <v>0.138766</v>
       </c>
       <c r="H3">
-        <v>0.290313</v>
+        <v>0.416298</v>
       </c>
       <c r="I3">
-        <v>0.02354936372111632</v>
+        <v>0.01356925767068476</v>
       </c>
       <c r="J3">
-        <v>0.02354936372111632</v>
+        <v>0.01356925767068476</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>15.534092</v>
       </c>
       <c r="O3">
-        <v>0.1239772575307637</v>
+        <v>0.0626664797952065</v>
       </c>
       <c r="P3">
-        <v>0.1239772575307637</v>
+        <v>0.06266647979520648</v>
       </c>
       <c r="Q3">
-        <v>0.5010832056440001</v>
+        <v>0.7185346034906668</v>
       </c>
       <c r="R3">
-        <v>4.509748850796001</v>
+        <v>6.466811431416001</v>
       </c>
       <c r="S3">
-        <v>0.002919585530738462</v>
+        <v>0.0008503376116559171</v>
       </c>
       <c r="T3">
-        <v>0.002919585530738462</v>
+        <v>0.0008503376116559171</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +646,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -661,16 +661,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.09677100000000001</v>
+        <v>0.138766</v>
       </c>
       <c r="H4">
-        <v>0.290313</v>
+        <v>0.416298</v>
       </c>
       <c r="I4">
-        <v>0.02354936372111632</v>
+        <v>0.01356925767068476</v>
       </c>
       <c r="J4">
-        <v>0.02354936372111632</v>
+        <v>0.01356925767068476</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>35.31548633333333</v>
+        <v>76.16218566666667</v>
       </c>
       <c r="N4">
-        <v>105.946459</v>
+        <v>228.486557</v>
       </c>
       <c r="O4">
-        <v>0.8455564336760396</v>
+        <v>0.9217434921665711</v>
       </c>
       <c r="P4">
-        <v>0.8455564336760398</v>
+        <v>0.921743492166571</v>
       </c>
       <c r="Q4">
-        <v>3.417514927963</v>
+        <v>10.56872185622067</v>
       </c>
       <c r="R4">
-        <v>30.757634351667</v>
+        <v>95.118496705986</v>
       </c>
       <c r="S4">
-        <v>0.01991231600336702</v>
+        <v>0.012507374951485</v>
       </c>
       <c r="T4">
-        <v>0.01991231600336703</v>
+        <v>0.012507374951485</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,13 +708,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -723,46 +723,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.09677100000000001</v>
+        <v>0.138766</v>
       </c>
       <c r="H5">
-        <v>0.290313</v>
+        <v>0.416298</v>
       </c>
       <c r="I5">
-        <v>0.02354936372111632</v>
+        <v>0.01356925767068476</v>
       </c>
       <c r="J5">
-        <v>0.02354936372111632</v>
+        <v>0.01356925767068476</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.089474</v>
+        <v>0.07949433333333333</v>
       </c>
       <c r="N5">
-        <v>0.268422</v>
+        <v>0.238483</v>
       </c>
       <c r="O5">
-        <v>0.002142270267288404</v>
+        <v>0.0009620703998019471</v>
       </c>
       <c r="P5">
-        <v>0.002142270267288404</v>
+        <v>0.000962070399801947</v>
       </c>
       <c r="Q5">
-        <v>0.008658488454000001</v>
+        <v>0.01103111065933333</v>
       </c>
       <c r="R5">
-        <v>0.07792639608600001</v>
+        <v>0.099279995934</v>
       </c>
       <c r="S5">
-        <v>5.044910171330768E-05</v>
+        <v>1.305458115225132E-05</v>
       </c>
       <c r="T5">
-        <v>5.04491017133077E-05</v>
+        <v>1.305458115225132E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -791,40 +791,40 @@
         <v>0.162484</v>
       </c>
       <c r="I6">
-        <v>0.01318023931019921</v>
+        <v>0.00529617548814441</v>
       </c>
       <c r="J6">
-        <v>0.01318023931019921</v>
+        <v>0.005296175488144411</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>1.182981</v>
+        <v>1.208684666666667</v>
       </c>
       <c r="N6">
-        <v>3.548943</v>
+        <v>3.626054</v>
       </c>
       <c r="O6">
-        <v>0.02832403852590812</v>
+        <v>0.01462795763842055</v>
       </c>
       <c r="P6">
-        <v>0.02832403852590812</v>
+        <v>0.01462795763842055</v>
       </c>
       <c r="Q6">
-        <v>0.06407182826799999</v>
+        <v>0.06546397312622222</v>
       </c>
       <c r="R6">
-        <v>0.5766464544119999</v>
+        <v>0.589175758136</v>
       </c>
       <c r="S6">
-        <v>0.000373317606002771</v>
+        <v>7.747223068621773E-05</v>
       </c>
       <c r="T6">
-        <v>0.000373317606002771</v>
+        <v>7.747223068621775E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -853,10 +853,10 @@
         <v>0.162484</v>
       </c>
       <c r="I7">
-        <v>0.01318023931019921</v>
+        <v>0.00529617548814441</v>
       </c>
       <c r="J7">
-        <v>0.01318023931019921</v>
+        <v>0.005296175488144411</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>15.534092</v>
       </c>
       <c r="O7">
-        <v>0.1239772575307637</v>
+        <v>0.0626664797952065</v>
       </c>
       <c r="P7">
-        <v>0.1239772575307637</v>
+        <v>0.06266647979520648</v>
       </c>
       <c r="Q7">
         <v>0.2804490449475556</v>
@@ -883,10 +883,10 @@
         <v>2.524041404528</v>
       </c>
       <c r="S7">
-        <v>0.001634049923277663</v>
+        <v>0.0003318926742196696</v>
       </c>
       <c r="T7">
-        <v>0.001634049923277663</v>
+        <v>0.0003318926742196696</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +894,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -915,10 +915,10 @@
         <v>0.162484</v>
       </c>
       <c r="I8">
-        <v>0.01318023931019921</v>
+        <v>0.00529617548814441</v>
       </c>
       <c r="J8">
-        <v>0.01318023931019921</v>
+        <v>0.005296175488144411</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>35.31548633333333</v>
+        <v>76.16218566666667</v>
       </c>
       <c r="N8">
-        <v>105.946459</v>
+        <v>228.486557</v>
       </c>
       <c r="O8">
-        <v>0.8455564336760396</v>
+        <v>0.9217434921665711</v>
       </c>
       <c r="P8">
-        <v>0.8455564336760398</v>
+        <v>0.921743492166571</v>
       </c>
       <c r="Q8">
-        <v>1.912733827128444</v>
+        <v>4.125045525287556</v>
       </c>
       <c r="R8">
-        <v>17.214604444156</v>
+        <v>37.125409727588</v>
       </c>
       <c r="S8">
-        <v>0.01114463614612879</v>
+        <v>0.004881715289569224</v>
       </c>
       <c r="T8">
-        <v>0.01114463614612879</v>
+        <v>0.004881715289569224</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -977,40 +977,40 @@
         <v>0.162484</v>
       </c>
       <c r="I9">
-        <v>0.01318023931019921</v>
+        <v>0.00529617548814441</v>
       </c>
       <c r="J9">
-        <v>0.01318023931019921</v>
+        <v>0.005296175488144411</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.089474</v>
+        <v>0.07949433333333333</v>
       </c>
       <c r="N9">
-        <v>0.268422</v>
+        <v>0.238483</v>
       </c>
       <c r="O9">
-        <v>0.002142270267288404</v>
+        <v>0.0009620703998019471</v>
       </c>
       <c r="P9">
-        <v>0.002142270267288404</v>
+        <v>0.000962070399801947</v>
       </c>
       <c r="Q9">
-        <v>0.004846031138666666</v>
+        <v>0.004305519085777778</v>
       </c>
       <c r="R9">
-        <v>0.04361428024799999</v>
+        <v>0.038749671772</v>
       </c>
       <c r="S9">
-        <v>2.823563478998558E-05</v>
+        <v>5.095293669300365E-06</v>
       </c>
       <c r="T9">
-        <v>2.823563478998559E-05</v>
+        <v>5.095293669300365E-06</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.958350666666666</v>
+        <v>10.002366</v>
       </c>
       <c r="H10">
-        <v>11.875052</v>
+        <v>30.007098</v>
       </c>
       <c r="I10">
-        <v>0.9632703969686844</v>
+        <v>0.9780831152479456</v>
       </c>
       <c r="J10">
-        <v>0.9632703969686844</v>
+        <v>0.9780831152479456</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>1.182981</v>
+        <v>1.208684666666667</v>
       </c>
       <c r="N10">
-        <v>3.548943</v>
+        <v>3.626054</v>
       </c>
       <c r="O10">
-        <v>0.02832403852590812</v>
+        <v>0.01462795763842055</v>
       </c>
       <c r="P10">
-        <v>0.02832403852590812</v>
+        <v>0.01462795763842055</v>
       </c>
       <c r="Q10">
-        <v>4.682653630003998</v>
+        <v>12.089706414588</v>
       </c>
       <c r="R10">
-        <v>42.14388267003599</v>
+        <v>108.807357731292</v>
       </c>
       <c r="S10">
-        <v>0.02728370783460782</v>
+        <v>0.01430735837670136</v>
       </c>
       <c r="T10">
-        <v>0.02728370783460783</v>
+        <v>0.01430735837670136</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,10 +1080,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.958350666666666</v>
+        <v>10.002366</v>
       </c>
       <c r="H11">
-        <v>11.875052</v>
+        <v>30.007098</v>
       </c>
       <c r="I11">
-        <v>0.9632703969686844</v>
+        <v>0.9780831152479456</v>
       </c>
       <c r="J11">
-        <v>0.9632703969686844</v>
+        <v>0.9780831152479456</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>15.534092</v>
       </c>
       <c r="O11">
-        <v>0.1239772575307637</v>
+        <v>0.0626664797952065</v>
       </c>
       <c r="P11">
-        <v>0.1239772575307637</v>
+        <v>0.06266647979520648</v>
       </c>
       <c r="Q11">
-        <v>20.49646114142044</v>
+        <v>51.79255788722401</v>
       </c>
       <c r="R11">
-        <v>184.468150272784</v>
+        <v>466.133020985016</v>
       </c>
       <c r="S11">
-        <v>0.1194236220767476</v>
+        <v>0.06129302577971801</v>
       </c>
       <c r="T11">
-        <v>0.1194236220767476</v>
+        <v>0.06129302577971799</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,10 +1142,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.958350666666666</v>
+        <v>10.002366</v>
       </c>
       <c r="H12">
-        <v>11.875052</v>
+        <v>30.007098</v>
       </c>
       <c r="I12">
-        <v>0.9632703969686844</v>
+        <v>0.9780831152479456</v>
       </c>
       <c r="J12">
-        <v>0.9632703969686844</v>
+        <v>0.9780831152479456</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>35.31548633333333</v>
+        <v>76.16218566666667</v>
       </c>
       <c r="N12">
-        <v>105.946459</v>
+        <v>228.486557</v>
       </c>
       <c r="O12">
-        <v>0.8455564336760396</v>
+        <v>0.9217434921665711</v>
       </c>
       <c r="P12">
-        <v>0.8455564336760398</v>
+        <v>0.921743492166571</v>
       </c>
       <c r="Q12">
-        <v>139.7910788712075</v>
+        <v>761.8020563979541</v>
       </c>
       <c r="R12">
-        <v>1258.119709840868</v>
+        <v>6856.218507581586</v>
       </c>
       <c r="S12">
-        <v>0.8144994815265437</v>
+        <v>0.9015417462778003</v>
       </c>
       <c r="T12">
-        <v>0.8144994815265439</v>
+        <v>0.9015417462778001</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>10.002366</v>
+      </c>
+      <c r="H13">
+        <v>30.007098</v>
+      </c>
+      <c r="I13">
+        <v>0.9780831152479456</v>
+      </c>
+      <c r="J13">
+        <v>0.9780831152479456</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.07949433333333333</v>
+      </c>
+      <c r="N13">
+        <v>0.238483</v>
+      </c>
+      <c r="O13">
+        <v>0.0009620703998019471</v>
+      </c>
+      <c r="P13">
+        <v>0.000962070399801947</v>
+      </c>
+      <c r="Q13">
+        <v>0.795131416926</v>
+      </c>
+      <c r="R13">
+        <v>7.156182752334</v>
+      </c>
+      <c r="S13">
+        <v>0.0009409848137261249</v>
+      </c>
+      <c r="T13">
+        <v>0.0009409848137261247</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
         <v>25</v>
       </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>3.958350666666666</v>
-      </c>
-      <c r="H13">
-        <v>11.875052</v>
-      </c>
-      <c r="I13">
-        <v>0.9632703969686844</v>
-      </c>
-      <c r="J13">
-        <v>0.9632703969686844</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
         <v>0.3333333333333333</v>
       </c>
-      <c r="M13">
-        <v>0.089474</v>
-      </c>
-      <c r="N13">
-        <v>0.268422</v>
-      </c>
-      <c r="O13">
-        <v>0.002142270267288404</v>
-      </c>
-      <c r="P13">
-        <v>0.002142270267288404</v>
-      </c>
-      <c r="Q13">
-        <v>0.3541694675493333</v>
-      </c>
-      <c r="R13">
-        <v>3.187525207943999</v>
-      </c>
-      <c r="S13">
-        <v>0.00206358553078511</v>
-      </c>
-      <c r="T13">
-        <v>0.00206358553078511</v>
+      <c r="G14">
+        <v>0.03120566666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.09361700000000001</v>
+      </c>
+      <c r="I14">
+        <v>0.003051451593225274</v>
+      </c>
+      <c r="J14">
+        <v>0.003051451593225274</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1.208684666666667</v>
+      </c>
+      <c r="N14">
+        <v>3.626054</v>
+      </c>
+      <c r="O14">
+        <v>0.01462795763842055</v>
+      </c>
+      <c r="P14">
+        <v>0.01462795763842055</v>
+      </c>
+      <c r="Q14">
+        <v>0.03771781081311111</v>
+      </c>
+      <c r="R14">
+        <v>0.339460297318</v>
+      </c>
+      <c r="S14">
+        <v>4.463650464139022E-05</v>
+      </c>
+      <c r="T14">
+        <v>4.463650464139022E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.03120566666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.09361700000000001</v>
+      </c>
+      <c r="I15">
+        <v>0.003051451593225274</v>
+      </c>
+      <c r="J15">
+        <v>0.003051451593225274</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>5.178030666666667</v>
+      </c>
+      <c r="N15">
+        <v>15.534092</v>
+      </c>
+      <c r="O15">
+        <v>0.0626664797952065</v>
+      </c>
+      <c r="P15">
+        <v>0.06266647979520648</v>
+      </c>
+      <c r="Q15">
+        <v>0.1615838989737778</v>
+      </c>
+      <c r="R15">
+        <v>1.454255090764</v>
+      </c>
+      <c r="S15">
+        <v>0.0001912237296129023</v>
+      </c>
+      <c r="T15">
+        <v>0.0001912237296129022</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.03120566666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.09361700000000001</v>
+      </c>
+      <c r="I16">
+        <v>0.003051451593225274</v>
+      </c>
+      <c r="J16">
+        <v>0.003051451593225274</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>76.16218566666667</v>
+      </c>
+      <c r="N16">
+        <v>228.486557</v>
+      </c>
+      <c r="O16">
+        <v>0.9217434921665711</v>
+      </c>
+      <c r="P16">
+        <v>0.921743492166571</v>
+      </c>
+      <c r="Q16">
+        <v>2.376691778518778</v>
+      </c>
+      <c r="R16">
+        <v>21.390226006669</v>
+      </c>
+      <c r="S16">
+        <v>0.002812655647716711</v>
+      </c>
+      <c r="T16">
+        <v>0.002812655647716711</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.03120566666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.09361700000000001</v>
+      </c>
+      <c r="I17">
+        <v>0.003051451593225274</v>
+      </c>
+      <c r="J17">
+        <v>0.003051451593225274</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.07949433333333333</v>
+      </c>
+      <c r="N17">
+        <v>0.238483</v>
+      </c>
+      <c r="O17">
+        <v>0.0009620703998019471</v>
+      </c>
+      <c r="P17">
+        <v>0.000962070399801947</v>
+      </c>
+      <c r="Q17">
+        <v>0.002480673667888889</v>
+      </c>
+      <c r="R17">
+        <v>0.022326063011</v>
+      </c>
+      <c r="S17">
+        <v>2.935711254270528E-06</v>
+      </c>
+      <c r="T17">
+        <v>2.935711254270527E-06</v>
       </c>
     </row>
   </sheetData>
